--- a/Server.xlsx
+++ b/Server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81060C89-0C84-4FF2-B45B-10A1BB21139C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48D415E-2A3A-4D92-A0B3-779A5B71932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE16D26A-C5A5-4DD8-B22D-3685DD3C24ED}"/>
   </bookViews>
@@ -135,9 +135,6 @@
     <t>D4560254B</t>
   </si>
   <si>
-    <t>Pass Panel 24 Port</t>
-  </si>
-  <si>
     <t>Net Key</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>UPS Battery 16 PCS</t>
+  </si>
+  <si>
+    <t>Patch Panel 24 Port</t>
   </si>
 </sst>
 </file>
@@ -254,13 +254,7 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -272,6 +266,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,290 +590,290 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="5" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="5" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
